--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW127_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW127_wt_pct_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,140 +466,155 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure_FCC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Nb</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Mn</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Cu</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Ta</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Co</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Mg</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Zr</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Hf</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_BCC</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_other</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>delta_a</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>sigma_Tm</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Hmix</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>sigma_Hmix</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>ideal_S</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>elec_nega</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>sigma_elec_nega</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>VEC</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>sigma_VEC</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>bulk_modulus</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>sigma_bulk_modulus</t>
         </is>
@@ -625,7 +640,7 @@
         <v>11.91383887017191</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -670,42 +685,51 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.254765907818317</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>0.02861242009129149</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>1965.390109650969</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
         <v>274.562187146116</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
         <v>-7.308352042715843</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
         <v>3.256171989931659</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
         <v>1.17787616339893</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
         <v>1.800989797412015</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
         <v>0.1375282832677187</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
         <v>7.888727388957154</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>1.931450487121624</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
         <v>171123343861.8013</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AK2" t="n">
         <v>16.57321613892491</v>
       </c>
     </row>
@@ -729,7 +753,7 @@
         <v>12.52643653316317</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -774,42 +798,51 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>1.258385811382741</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>0.03402790435591511</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>1988.75571140197</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
         <v>292.1058568391715</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
         <v>-7.683046513553826</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
         <v>3.708325108099253</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AE3" t="n">
         <v>1.24369261438636</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AF3" t="n">
         <v>1.798045145441693</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="n">
         <v>0.1451287365903598</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AH3" t="n">
         <v>7.723913555296019</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AI3" t="n">
         <v>1.936283649795648</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AJ3" t="n">
         <v>170910625462.2599</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AK3" t="n">
         <v>18.85714380843444</v>
       </c>
     </row>
@@ -833,7 +866,7 @@
         <v>13.14133515965222</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -878,42 +911,51 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>1.262213822111569</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>0.03890142626927678</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>2009.207696392401</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB4" t="n">
         <v>305.0458080935681</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
         <v>-8.052760159876874</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AD4" t="n">
         <v>4.117245280259731</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AE4" t="n">
         <v>1.29950146639396</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AF4" t="n">
         <v>1.794783032818288</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AG4" t="n">
         <v>0.1519242392628972</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
         <v>7.566891278320571</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AI4" t="n">
         <v>1.934727495135152</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AJ4" t="n">
         <v>170547779005.9436</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AK4" t="n">
         <v>20.91719457608748</v>
       </c>
     </row>
@@ -937,7 +979,7 @@
         <v>13.20137923743599</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -982,42 +1024,51 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1.269125939567719</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>0.04596108166519369</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
         <v>2033.044292334074</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
         <v>325.5217682462266</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
         <v>-8.8916526273422</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AD5" t="n">
         <v>4.771859217544167</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
         <v>1.375117207475965</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AF5" t="n">
         <v>1.794702453108449</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AG5" t="n">
         <v>0.1629905624857451</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AH5" t="n">
         <v>7.397475324270714</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AI5" t="n">
         <v>1.952397441368257</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AJ5" t="n">
         <v>170303000770.3471</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AK5" t="n">
         <v>24.15173418107907</v>
       </c>
     </row>
@@ -1041,7 +1092,7 @@
         <v>12.90822754854367</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1086,42 +1137,51 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1.277329087768619</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>0.05215178002292672</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>2058.647893722808</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AB6" t="n">
         <v>349.2079873257831</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
         <v>-9.771330828593046</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
         <v>5.361422336362171</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
         <v>1.444956025222571</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
         <v>1.797943664608629</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
         <v>0.1756319327797558</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
         <v>7.238858472948311</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>1.972003384949864</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AJ6" t="n">
         <v>170377717475.5446</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AK6" t="n">
         <v>27.55432564045223</v>
       </c>
     </row>
@@ -1145,7 +1205,7 @@
         <v>14.40283792444095</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1190,42 +1250,51 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>1.252498238036109</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>0.0257186461782648</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>1910.399146528978</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AB7" t="n">
         <v>254.8594213475091</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
         <v>-6.896392734946695</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
         <v>3.209967171792397</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
         <v>1.145598550478605</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
         <v>1.822746829655537</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AG7" t="n">
         <v>0.1266653559776749</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AH7" t="n">
         <v>8.295223438671602</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>1.874058939513005</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AJ7" t="n">
         <v>172615717200.7871</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AK7" t="n">
         <v>14.87650978091485</v>
       </c>
     </row>
@@ -1249,7 +1318,7 @@
         <v>15.46940015160363</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1294,42 +1363,51 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>1.254667838290653</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>0.02969589154772512</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>1930.907418662692</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
         <v>267.7474389956217</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AC8" t="n">
         <v>-7.312833963655629</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
         <v>3.585611945818289</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
         <v>1.207936016686969</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AF8" t="n">
         <v>1.815935315000807</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="n">
         <v>0.1324107169661976</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
         <v>8.120338073859321</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>1.901089454013094</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>172000694200.4114</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AK8" t="n">
         <v>16.41851825978535</v>
       </c>
     </row>
@@ -1353,7 +1431,7 @@
         <v>16.07607775891737</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1398,42 +1476,51 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.258197824729923</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>0.03485299570854532</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
         <v>1955.908260844173</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AB9" t="n">
         <v>287.1911183903668</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
         <v>-7.824822198713133</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AD9" t="n">
         <v>4.030645245571</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
         <v>1.276945169007389</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AF9" t="n">
         <v>1.811274238803714</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AG9" t="n">
         <v>0.1405291976034652</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AH9" t="n">
         <v>7.935355795795596</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>1.925356611980058</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="n">
         <v>171623777067.4575</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AK9" t="n">
         <v>18.6605449367011</v>
       </c>
     </row>
@@ -1457,7 +1544,7 @@
         <v>16.56260556834622</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1502,42 +1589,51 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1.263382903397482</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>0.04122706456713981</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
         <v>1981.31573290495</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
         <v>305.9746118523682</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AC10" t="n">
         <v>-8.575717009339188</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
         <v>4.619369866538694</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
         <v>1.350478383060882</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
         <v>1.806843926448549</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="n">
         <v>0.1500017547653722</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>7.7358276561877</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>1.950862442593053</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
         <v>171075141469.8528</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AK10" t="n">
         <v>21.3984664334543</v>
       </c>
     </row>
@@ -1561,7 +1657,7 @@
         <v>16.73678872045408</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1606,42 +1702,51 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.269698881332738</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
         <v>0.04749838465005945</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>2002.203607408634</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AB11" t="n">
         <v>323.1904737096872</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
         <v>-9.504436225599324</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AD11" t="n">
         <v>5.234552609187435</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AE11" t="n">
         <v>1.416942837231018</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AF11" t="n">
         <v>1.804507684347884</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="n">
         <v>0.159677124567813</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
         <v>7.564982494460432</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
         <v>1.980322665275406</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AJ11" t="n">
         <v>170530573528.5436</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AK11" t="n">
         <v>24.23501833227298</v>
       </c>
     </row>
@@ -1665,7 +1770,7 @@
         <v>16.63041790433924</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1710,42 +1815,51 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.278177355921367</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>0.05420845005532213</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
         <v>2023.215776888847</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AB12" t="n">
         <v>339.1960727307791</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AC12" t="n">
         <v>-10.71984177740018</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AD12" t="n">
         <v>5.914824646611644</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AE12" t="n">
         <v>1.481647303032835</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AF12" t="n">
         <v>1.800963515371497</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AG12" t="n">
         <v>0.170686642093516</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
         <v>7.366139144614062</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AI12" t="n">
         <v>2.017023467632983</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AJ12" t="n">
         <v>169559256903.8481</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AK12" t="n">
         <v>27.44864179569834</v>
       </c>
     </row>
@@ -1769,7 +1883,7 @@
         <v>15.95938694132048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1814,42 +1928,51 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>1.289594268717468</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>0.06071688531525123</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
         <v>2047.134933607666</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AB13" t="n">
         <v>360.2046291860082</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
         <v>-12.16546815657904</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AD13" t="n">
         <v>6.616964205514401</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AE13" t="n">
         <v>1.542044257862088</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AF13" t="n">
         <v>1.799761120888374</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AG13" t="n">
         <v>0.1845740395320562</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AH13" t="n">
         <v>7.151721215168757</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
         <v>2.061425386695336</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AJ13" t="n">
         <v>168603719582.473</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AK13" t="n">
         <v>31.26280982052325</v>
       </c>
     </row>
@@ -1873,7 +1996,7 @@
         <v>16.77989840933871</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1918,42 +2041,51 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.250316029162956</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>0.02234652352531576</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
         <v>1858.896981462749</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AB14" t="n">
         <v>223.1052174953485</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AC14" t="n">
         <v>-5.93979730453322</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AD14" t="n">
         <v>3.01827728548232</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
         <v>1.063185936594368</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AF14" t="n">
         <v>1.843264737463906</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AG14" t="n">
         <v>0.1116712985194345</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AH14" t="n">
         <v>8.676907894813986</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AI14" t="n">
         <v>1.732059981485192</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AJ14" t="n">
         <v>174037403291.3124</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AK14" t="n">
         <v>12.89624961466398</v>
       </c>
     </row>
@@ -1977,7 +2109,7 @@
         <v>18.24120684699196</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2022,42 +2154,51 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.25212433895009</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
         <v>0.02613902435940696</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>1881.770809512196</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AB15" t="n">
         <v>242.2303806271887</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
         <v>-6.516938312878006</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AD15" t="n">
         <v>3.375930144833632</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AE15" t="n">
         <v>1.145807299277426</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AF15" t="n">
         <v>1.835119989219365</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AG15" t="n">
         <v>0.119230466120438</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AH15" t="n">
         <v>8.480358510820986</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AI15" t="n">
         <v>1.795272105802566</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AJ15" t="n">
         <v>173353147393.0418</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AK15" t="n">
         <v>14.49437364396942</v>
       </c>
     </row>
@@ -2081,7 +2222,7 @@
         <v>19.40047800693557</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2126,42 +2267,51 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>1.254525432328354</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
         <v>0.03062374309957437</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
         <v>1900.937625963149</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AB16" t="n">
         <v>257.0929737241056</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
         <v>-7.141941478249554</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
         <v>3.839077018660229</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AE16" t="n">
         <v>1.215471237114105</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AF16" t="n">
         <v>1.82841981114027</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AG16" t="n">
         <v>0.1259760791834505</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AH16" t="n">
         <v>8.308847207435786</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AI16" t="n">
         <v>1.843739124786153</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AJ16" t="n">
         <v>172681987994.406</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
         <v>16.21574400362996</v>
       </c>
     </row>
@@ -2185,7 +2335,7 @@
         <v>20.32110083421116</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2230,42 +2380,51 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>1.257871058499389</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>0.03558109044646076</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
         <v>1925.830880392025</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
         <v>276.2994752032042</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AC17" t="n">
         <v>-7.788343395649255</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
         <v>4.290507669321059</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AE17" t="n">
         <v>1.289529077710658</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AF17" t="n">
         <v>1.821553087637225</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AG17" t="n">
         <v>0.1343780878912307</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
         <v>8.104844474329221</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AI17" t="n">
         <v>1.886583638993682</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AJ17" t="n">
         <v>172032901784.0903</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AK17" t="n">
         <v>18.3387625670607</v>
       </c>
     </row>
@@ -2289,7 +2448,7 @@
         <v>21.08683974733144</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2334,42 +2493,51 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>1.262602528260277</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>0.04182704868397264</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AA18" t="n">
         <v>1944.089093835337</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AB18" t="n">
         <v>289.0663203283181</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
         <v>-8.772009543755425</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AD18" t="n">
         <v>4.943632519755713</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AE18" t="n">
         <v>1.357334123215531</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AF18" t="n">
         <v>1.815063753844238</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AG18" t="n">
         <v>0.1423984614387334</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AH18" t="n">
         <v>7.920661404492191</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AI18" t="n">
         <v>1.932791395529987</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AJ18" t="n">
         <v>171069786174.6463</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AK18" t="n">
         <v>20.73921876390618</v>
       </c>
     </row>
@@ -2393,7 +2561,7 @@
         <v>21.44055607691119</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2438,42 +2606,51 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.269674148027423</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Z19" t="n">
         <v>0.04890565005280483</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
         <v>1966.397337440692</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AB19" t="n">
         <v>308.8703073133958</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AC19" t="n">
         <v>-10.00632483236364</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AD19" t="n">
         <v>5.650603544925249</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AE19" t="n">
         <v>1.432216123324658</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AF19" t="n">
         <v>1.810661746846901</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AG19" t="n">
         <v>0.1533631165885802</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AH19" t="n">
         <v>7.717623927234153</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AI19" t="n">
         <v>1.983452643347194</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AJ19" t="n">
         <v>170194490974.5025</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AK19" t="n">
         <v>23.90390715170635</v>
       </c>
     </row>
@@ -2497,7 +2674,7 @@
         <v>20.523443560167</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2542,42 +2719,51 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.279539274197646</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Z20" t="n">
         <v>0.05631159110067898</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AA20" t="n">
         <v>1992.11965466347</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AB20" t="n">
         <v>330.1299808428652</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AC20" t="n">
         <v>-11.60807000125842</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AD20" t="n">
         <v>6.412739312437667</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AE20" t="n">
         <v>1.501766085284305</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AF20" t="n">
         <v>1.805479598442288</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AG20" t="n">
         <v>0.1669562569518219</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AH20" t="n">
         <v>7.480494181720593</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AI20" t="n">
         <v>2.048224573367955</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AJ20" t="n">
         <v>168984494621.1359</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AK20" t="n">
         <v>27.6104778720973</v>
       </c>
     </row>
@@ -2601,7 +2787,7 @@
         <v>19.83070852452347</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2646,42 +2832,51 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>1.292108607579335</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Z21" t="n">
         <v>0.06320849496544573</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AA21" t="n">
         <v>2018.94936542941</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AB21" t="n">
         <v>348.128541241029</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
         <v>-13.19912680914454</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
         <v>7.076340494036541</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AE21" t="n">
         <v>1.55878040589761</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AF21" t="n">
         <v>1.797375652020159</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AG21" t="n">
         <v>0.181336555074284</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AH21" t="n">
         <v>7.186859642910042</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AI21" t="n">
         <v>2.095960621336902</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AJ21" t="n">
         <v>167070218259.4119</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AK21" t="n">
         <v>31.50028146678125</v>
       </c>
     </row>
@@ -2705,7 +2900,7 @@
         <v>18.38469110077692</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2750,42 +2945,51 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>1.306650530495511</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Z22" t="n">
         <v>0.06896311363676645</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
         <v>2033.56805155149</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AB22" t="n">
         <v>355.5120268453619</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AC22" t="n">
         <v>-15.03117563854438</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
         <v>7.705847490946482</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AE22" t="n">
         <v>1.582786882113978</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AF22" t="n">
         <v>1.78510869833338</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AG22" t="n">
         <v>0.1934721415961703</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AH22" t="n">
         <v>6.90157962675975</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AI22" t="n">
         <v>2.153837897196858</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
         <v>164041090994.0928</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AK22" t="n">
         <v>34.9501405412774</v>
       </c>
     </row>
@@ -2809,7 +3013,7 @@
         <v>20.91928113041509</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2854,42 +3058,51 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>1.24989080594357</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
         <v>0.02242466459682167</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
         <v>1839.316212596724</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AB23" t="n">
         <v>207.9471864985332</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AC23" t="n">
         <v>-5.43643582513496</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AD23" t="n">
         <v>3.081524017613006</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AE23" t="n">
         <v>1.052418075400343</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AF23" t="n">
         <v>1.851361535609661</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AG23" t="n">
         <v>0.1035933717083088</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AH23" t="n">
         <v>8.785881190069862</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AI23" t="n">
         <v>1.635059494755308</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AJ23" t="n">
         <v>174475161087.021</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AK23" t="n">
         <v>12.45500151673185</v>
       </c>
     </row>
@@ -2913,7 +3126,7 @@
         <v>22.89386255416406</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2958,42 +3171,51 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>1.251433399999775</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
         <v>0.0261267240447139</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AA24" t="n">
         <v>1856.700732207924</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AB24" t="n">
         <v>221.6573415982984</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AC24" t="n">
         <v>-6.075663446368809</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AD24" t="n">
         <v>3.490403373797938</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AE24" t="n">
         <v>1.130052361353972</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AF24" t="n">
         <v>1.843038002970028</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AG24" t="n">
         <v>0.1104227941364378</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AH24" t="n">
         <v>8.608587290008606</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AI24" t="n">
         <v>1.704410406493456</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AJ24" t="n">
         <v>173634942646.0788</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AK24" t="n">
         <v>13.8332681394798</v>
       </c>
     </row>
@@ -3017,7 +3239,7 @@
         <v>24.425663779861</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3062,42 +3284,51 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>1.253587113748154</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>0.03010171522304476</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>1875.208114416462</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AB25" t="n">
         <v>241.0874416574067</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AC25" t="n">
         <v>-6.630235359021663</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AD25" t="n">
         <v>3.856306084174258</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AE25" t="n">
         <v>1.200875289410905</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AF25" t="n">
         <v>1.837755075243213</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="n">
         <v>0.1174631940163576</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
         <v>8.449603205837944</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AI25" t="n">
         <v>1.754959190639059</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AJ25" t="n">
         <v>173149880100.7162</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AK25" t="n">
         <v>15.52507972589734</v>
       </c>
     </row>
@@ -3121,7 +3352,7 @@
         <v>25.6950928456633</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3166,42 +3397,51 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>1.257573735693485</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Z26" t="n">
         <v>0.03658283568887444</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AA26" t="n">
         <v>1897.749761229042</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AB26" t="n">
         <v>258.4923250314209</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AC26" t="n">
         <v>-7.693169918919834</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AD26" t="n">
         <v>4.54157294652326</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AE26" t="n">
         <v>1.285532899233937</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AF26" t="n">
         <v>1.828539171196307</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AG26" t="n">
         <v>0.1270674575201589</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AH26" t="n">
         <v>8.226988513589314</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AI26" t="n">
         <v>1.829728297195439</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AJ26" t="n">
         <v>172039169401.2254</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AK26" t="n">
         <v>17.97640283921121</v>
       </c>
     </row>
@@ -3225,7 +3465,7 @@
         <v>26.06709586304534</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3270,42 +3510,51 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>1.262217426877738</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Z27" t="n">
         <v>0.04203741465468024</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AA27" t="n">
         <v>1922.545543726965</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AB27" t="n">
         <v>284.3235431179164</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AC27" t="n">
         <v>-8.526321632375351</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AD27" t="n">
         <v>5.021771942312162</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AE27" t="n">
         <v>1.358352375867699</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AF27" t="n">
         <v>1.824884249433622</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AG27" t="n">
         <v>0.1373453249591315</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AH27" t="n">
         <v>8.042123181313841</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AI27" t="n">
         <v>1.880241543372551</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AJ27" t="n">
         <v>171645518382.2342</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AK27" t="n">
         <v>20.58344629903521</v>
       </c>
     </row>
@@ -3329,7 +3578,7 @@
         <v>26.34188830688638</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3374,42 +3623,51 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>1.268905318877986</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Z28" t="n">
         <v>0.04932660870029752</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AA28" t="n">
         <v>1937.625262414334</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AB28" t="n">
         <v>293.3590611073436</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AC28" t="n">
         <v>-10.08202821836582</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AD28" t="n">
         <v>5.825718099628208</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AE28" t="n">
         <v>1.422518282266097</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AF28" t="n">
         <v>1.815996025851701</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AG28" t="n">
         <v>0.1468127813244983</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AH28" t="n">
         <v>7.838840445862845</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AI28" t="n">
         <v>1.956096224520991</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AJ28" t="n">
         <v>170042415011.0858</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AK28" t="n">
         <v>23.36780761860456</v>
       </c>
     </row>
@@ -3433,7 +3691,7 @@
         <v>25.42763025452264</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3478,42 +3736,51 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>1.278583203715585</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Z29" t="n">
         <v>0.05703269488840673</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AA29" t="n">
         <v>1957.16094713625</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AB29" t="n">
         <v>308.7325174557971</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AC29" t="n">
         <v>-12.01349986969413</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AD29" t="n">
         <v>6.654628123599766</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AE29" t="n">
         <v>1.487516081637802</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AF29" t="n">
         <v>1.80737517500496</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AG29" t="n">
         <v>0.1593861115234209</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AH29" t="n">
         <v>7.602369136628642</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AI29" t="n">
         <v>2.045228611863612</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AJ29" t="n">
         <v>168240213188.4736</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AK29" t="n">
         <v>26.84511405232859</v>
       </c>
     </row>
@@ -3537,7 +3804,7 @@
         <v>23.77895610836645</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3582,42 +3849,51 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>1.29161674913855</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Z30" t="n">
         <v>0.06404725700582078</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AA30" t="n">
         <v>1986.963452925797</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AB30" t="n">
         <v>333.3443197831963</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AC30" t="n">
         <v>-13.87615775479356</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AD30" t="n">
         <v>7.348867236110182</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AE30" t="n">
         <v>1.548325410786154</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AF30" t="n">
         <v>1.799519447020546</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AG30" t="n">
         <v>0.1756333828803087</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AH30" t="n">
         <v>7.303383044369948</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AI30" t="n">
         <v>2.119382644725882</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AJ30" t="n">
         <v>166405754041.4603</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AK30" t="n">
         <v>30.96896561874084</v>
       </c>
     </row>
@@ -3641,7 +3917,7 @@
         <v>22.25006807771119</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3686,42 +3962,51 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>1.309462298208831</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Z31" t="n">
         <v>0.07101048721141826</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AA31" t="n">
         <v>2001.82123973044</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AB31" t="n">
         <v>337.2941235761683</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AC31" t="n">
         <v>-16.24181075136597</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AD31" t="n">
         <v>8.043158389592071</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AE31" t="n">
         <v>1.569322219770063</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AF31" t="n">
         <v>1.780066049789132</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AG31" t="n">
         <v>0.1892393662232404</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AH31" t="n">
         <v>6.928597222572765</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AI31" t="n">
         <v>2.19813672140766</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AJ31" t="n">
         <v>162028604009.1398</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AK31" t="n">
         <v>34.8287395832598</v>
       </c>
     </row>
@@ -3745,7 +4030,7 @@
         <v>26.16132162725208</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3790,42 +4075,51 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>1.249122731754972</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Z32" t="n">
         <v>0.02184041280262336</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AA32" t="n">
         <v>1823.349951095511</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AB32" t="n">
         <v>187.3004888394036</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AC32" t="n">
         <v>-4.93361658550865</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AD32" t="n">
         <v>3.056423920263931</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AE32" t="n">
         <v>1.035682312192383</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AF32" t="n">
         <v>1.855598831980934</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AG32" t="n">
         <v>0.09500419584737264</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AH32" t="n">
         <v>8.83982980126356</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AI32" t="n">
         <v>1.53921091604485</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AJ32" t="n">
         <v>174531580661.5294</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AK32" t="n">
         <v>11.74591500099127</v>
       </c>
     </row>
@@ -3849,7 +4143,7 @@
         <v>28.38606114770485</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3894,42 +4188,51 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>1.250974448405602</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Z33" t="n">
         <v>0.02609583295203162</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AA33" t="n">
         <v>1841.533126342679</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AB33" t="n">
         <v>210.2783896585901</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AC33" t="n">
         <v>-5.562248615782308</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AD33" t="n">
         <v>3.460308326321056</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AE33" t="n">
         <v>1.117588542369771</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AF33" t="n">
         <v>1.849535970818519</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AG33" t="n">
         <v>0.1030191122958739</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AH33" t="n">
         <v>8.67148369223262</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AI33" t="n">
         <v>1.610605976956429</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AJ33" t="n">
         <v>173957545394.7417</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AK33" t="n">
         <v>13.51047945952667</v>
       </c>
     </row>
@@ -3953,7 +4256,7 @@
         <v>30.12906222754957</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3998,42 +4301,51 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>1.253557829847462</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Z34" t="n">
         <v>0.0311548632290348</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AA34" t="n">
         <v>1859.313923179467</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AB34" t="n">
         <v>228.9670171199315</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AC34" t="n">
         <v>-6.358078147213208</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AD34" t="n">
         <v>3.989311158801993</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AE34" t="n">
         <v>1.19302874536984</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AF34" t="n">
         <v>1.842828142331017</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AG34" t="n">
         <v>0.1113352164926394</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AH34" t="n">
         <v>8.497830530860618</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AI34" t="n">
         <v>1.681830590522719</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AJ34" t="n">
         <v>173206798534.6064</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AK34" t="n">
         <v>15.46861606689297</v>
       </c>
     </row>
@@ -4057,7 +4369,7 @@
         <v>31.20955586638514</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -4102,42 +4414,51 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>1.256730031162401</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Z35" t="n">
         <v>0.03662521214219822</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AA35" t="n">
         <v>1872.984073679408</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AB35" t="n">
         <v>237.6154783455702</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AC35" t="n">
         <v>-7.375627073691772</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AD35" t="n">
         <v>4.614320223473701</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AE35" t="n">
         <v>1.255181241937354</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AF35" t="n">
         <v>1.834427558062617</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AG35" t="n">
         <v>0.118852542057074</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AH35" t="n">
         <v>8.329992847033285</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AI35" t="n">
         <v>1.755793144042864</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AJ35" t="n">
         <v>172064786341.1717</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AK35" t="n">
         <v>17.34436562131009</v>
       </c>
     </row>
@@ -4161,7 +4482,7 @@
         <v>32.57369516081827</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -4206,42 +4527,51 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>1.261220219640402</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Z36" t="n">
         <v>0.04243865720519082</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AA36" t="n">
         <v>1892.59813720761</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AB36" t="n">
         <v>258.0789659999713</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AC36" t="n">
         <v>-8.363612125406542</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AD36" t="n">
         <v>5.148291895161864</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AE36" t="n">
         <v>1.324642612835811</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AF36" t="n">
         <v>1.828377741168773</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AG36" t="n">
         <v>0.1282875980840623</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AH36" t="n">
         <v>8.139186938516012</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AI36" t="n">
         <v>1.816327671533732</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AJ36" t="n">
         <v>171210864767.2791</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AK36" t="n">
         <v>19.80515743819626</v>
       </c>
     </row>
@@ -4265,7 +4595,7 @@
         <v>31.6863909343498</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -4310,42 +4640,51 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>1.269432692358082</v>
       </c>
-      <c r="W37" t="n">
+      <c r="Z37" t="n">
         <v>0.0510100753574416</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AA37" t="n">
         <v>1912.960783001505</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AB37" t="n">
         <v>274.9220324935695</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AC37" t="n">
         <v>-10.38298283415991</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AD37" t="n">
         <v>6.065215862697112</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AE37" t="n">
         <v>1.403301106451886</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AF37" t="n">
         <v>1.818111227502013</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AG37" t="n">
         <v>0.1415593009032595</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AH37" t="n">
         <v>7.899859715748125</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AI37" t="n">
         <v>1.932178431599419</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AJ37" t="n">
         <v>169410615431.1802</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AK37" t="n">
         <v>23.28445200231927</v>
       </c>
     </row>
@@ -4369,7 +4708,7 @@
         <v>31.23243662242328</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -4414,42 +4753,51 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1.277692875408512</v>
       </c>
-      <c r="W38" t="n">
+      <c r="Z38" t="n">
         <v>0.0575577054605649</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AA38" t="n">
         <v>1929.147605179963</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AB38" t="n">
         <v>288.3125399935588</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AC38" t="n">
         <v>-12.08539791790487</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AD38" t="n">
         <v>6.721825034376947</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AE38" t="n">
         <v>1.457678221680754</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AF38" t="n">
         <v>1.809580366469338</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AG38" t="n">
         <v>0.1524971499669439</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AH38" t="n">
         <v>7.687228159072295</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AI38" t="n">
         <v>2.014769339365162</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AJ38" t="n">
         <v>167698802556.7346</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AK38" t="n">
         <v>26.20512856122789</v>
       </c>
     </row>
@@ -4473,7 +4821,7 @@
         <v>29.12939122674005</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4518,42 +4866,51 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>1.291423249869715</v>
       </c>
-      <c r="W39" t="n">
+      <c r="Z39" t="n">
         <v>0.0655401386358114</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AA39" t="n">
         <v>1949.898061566082</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AB39" t="n">
         <v>301.5568730538513</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AC39" t="n">
         <v>-14.59021348853623</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AD39" t="n">
         <v>7.5418537305019</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AE39" t="n">
         <v>1.513180135597409</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AF39" t="n">
         <v>1.794587219405377</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AG39" t="n">
         <v>0.1673649467031821</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AH39" t="n">
         <v>7.368424502659908</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AI39" t="n">
         <v>2.128620635313069</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AJ39" t="n">
         <v>164613658925.6469</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AK39" t="n">
         <v>30.07144087741798</v>
       </c>
     </row>
@@ -4577,7 +4934,7 @@
         <v>26.20702785189979</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4622,42 +4979,51 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>1.308623259514222</v>
       </c>
-      <c r="W40" t="n">
+      <c r="Z40" t="n">
         <v>0.0717093717374474</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AA40" t="n">
         <v>1975.302750530132</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AB40" t="n">
         <v>318.7471007934364</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AC40" t="n">
         <v>-16.73055215741387</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AD40" t="n">
         <v>8.108742435583734</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AE40" t="n">
         <v>1.5439504624551</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AF40" t="n">
         <v>1.778588444503907</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AG40" t="n">
         <v>0.1834188012912518</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AH40" t="n">
         <v>6.996699227363647</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AI40" t="n">
         <v>2.210292394661805</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AJ40" t="n">
         <v>161098030633.8318</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AK40" t="n">
         <v>34.06466122619222</v>
       </c>
     </row>
@@ -4681,7 +5047,7 @@
         <v>32.6849143684497</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4726,42 +5092,51 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>1.248456356952437</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Z41" t="n">
         <v>0.02111826789323867</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AA41" t="n">
         <v>1815.982262871456</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AB41" t="n">
         <v>176.6214090429712</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AC41" t="n">
         <v>-4.431673149935807</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AD41" t="n">
         <v>2.873379227838483</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AE41" t="n">
         <v>1.027173792225321</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AF41" t="n">
         <v>1.85778108136967</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AG41" t="n">
         <v>0.08809082672414913</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AH41" t="n">
         <v>8.825652334536027</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AI41" t="n">
         <v>1.452543793588554</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AJ41" t="n">
         <v>174515897233.0497</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AK41" t="n">
         <v>11.29530248614031</v>
       </c>
     </row>
@@ -4785,7 +5160,7 @@
         <v>35.1027507479091</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4830,42 +5205,51 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>1.250303845093833</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Z42" t="n">
         <v>0.02610834140551188</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AA42" t="n">
         <v>1828.669572343001</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AB42" t="n">
         <v>189.5739250741411</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AC42" t="n">
         <v>-5.173090491367516</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AD42" t="n">
         <v>3.460062466703747</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AE42" t="n">
         <v>1.09404580122159</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AF42" t="n">
         <v>1.85079000789655</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AG42" t="n">
         <v>0.09539938760750956</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AH42" t="n">
         <v>8.671816935425738</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AI42" t="n">
         <v>1.526940443406076</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AJ42" t="n">
         <v>173664579983.4562</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AK42" t="n">
         <v>12.97080250243267</v>
       </c>
     </row>
@@ -4889,7 +5273,7 @@
         <v>37.15007481550632</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4934,42 +5318,51 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>1.252245136570964</v>
       </c>
-      <c r="W43" t="n">
+      <c r="Z43" t="n">
         <v>0.03027272344404877</v>
       </c>
-      <c r="X43" t="n">
+      <c r="AA43" t="n">
         <v>1840.806583980573</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AB43" t="n">
         <v>202.4687021859105</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AC43" t="n">
         <v>-5.799865367788962</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AD43" t="n">
         <v>3.888753339071981</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AE43" t="n">
         <v>1.148305057762534</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AF43" t="n">
         <v>1.844926649224082</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AG43" t="n">
         <v>0.1017541783690723</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AH43" t="n">
         <v>8.532355365960875</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AI43" t="n">
         <v>1.582556104944398</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AJ43" t="n">
         <v>172940724817.4479</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AK43" t="n">
         <v>14.48007855024061</v>
       </c>
     </row>
@@ -4993,7 +5386,7 @@
         <v>38.52296375476049</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -5038,42 +5431,51 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>1.255954991695723</v>
       </c>
-      <c r="W44" t="n">
+      <c r="Z44" t="n">
         <v>0.03653222438528534</v>
       </c>
-      <c r="X44" t="n">
+      <c r="AA44" t="n">
         <v>1857.696667712585</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AB44" t="n">
         <v>222.1531309065513</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AC44" t="n">
         <v>-6.848926996732369</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AD44" t="n">
         <v>4.516712681557334</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AE44" t="n">
         <v>1.218560781946261</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AF44" t="n">
         <v>1.83805977424982</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AG44" t="n">
         <v>0.1114697931299539</v>
       </c>
-      <c r="AE44" t="n">
+      <c r="AH44" t="n">
         <v>8.35438578763622</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AI44" t="n">
         <v>1.663700412675974</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AJ44" t="n">
         <v>172007576297.5939</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AK44" t="n">
         <v>16.88322645240389</v>
       </c>
     </row>
@@ -5097,7 +5499,7 @@
         <v>38.64901254995809</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -5142,42 +5544,51 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>1.261106542066177</v>
       </c>
-      <c r="W45" t="n">
+      <c r="Z45" t="n">
         <v>0.04347994595555441</v>
       </c>
-      <c r="X45" t="n">
+      <c r="AA45" t="n">
         <v>1873.978688057696</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AB45" t="n">
         <v>238.2681078190415</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AC45" t="n">
         <v>-8.272907241608689</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AD45" t="n">
         <v>5.232751578313634</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AE45" t="n">
         <v>1.287495513009679</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AF45" t="n">
         <v>1.829950148807879</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AG45" t="n">
         <v>0.1222165847450649</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AH45" t="n">
         <v>8.168623601550493</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AI45" t="n">
         <v>1.76130077313643</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AJ45" t="n">
         <v>170743253403.8171</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AK45" t="n">
         <v>19.55222573255171</v>
       </c>
     </row>
@@ -5201,7 +5612,7 @@
         <v>38.46418985118834</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5246,42 +5657,51 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>1.267658650849629</v>
       </c>
-      <c r="W46" t="n">
+      <c r="Z46" t="n">
         <v>0.05037457207678581</v>
       </c>
-      <c r="X46" t="n">
+      <c r="AA46" t="n">
         <v>1890.336823034985</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AB46" t="n">
         <v>255.1289572895578</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AC46" t="n">
         <v>-9.858889421204831</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AD46" t="n">
         <v>5.903199851234481</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AE46" t="n">
         <v>1.350215236919865</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AF46" t="n">
         <v>1.822241962993487</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AG46" t="n">
         <v>0.1334479465704</v>
       </c>
-      <c r="AE46" t="n">
+      <c r="AH46" t="n">
         <v>7.975359960104714</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AI46" t="n">
         <v>1.855716333636782</v>
       </c>
-      <c r="AG46" t="n">
+      <c r="AJ46" t="n">
         <v>169357769533.5957</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AK46" t="n">
         <v>22.41376651817768</v>
       </c>
     </row>
@@ -5305,7 +5725,7 @@
         <v>36.75000840091402</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -5350,42 +5770,51 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
         <v>1.277226502198376</v>
       </c>
-      <c r="W47" t="n">
+      <c r="Z47" t="n">
         <v>0.05814530167491639</v>
       </c>
-      <c r="X47" t="n">
+      <c r="AA47" t="n">
         <v>1908.381720405395</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="AB47" t="n">
         <v>270.1748672456051</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AC47" t="n">
         <v>-12.05840063203631</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AD47" t="n">
         <v>6.691407298969256</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AE47" t="n">
         <v>1.416602008730459</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AF47" t="n">
         <v>1.810916103333606</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AG47" t="n">
         <v>0.1469850380250373</v>
       </c>
-      <c r="AE47" t="n">
+      <c r="AH47" t="n">
         <v>7.733427570330837</v>
       </c>
-      <c r="AF47" t="n">
+      <c r="AI47" t="n">
         <v>1.978370853224922</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AJ47" t="n">
         <v>167202009555.15</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AK47" t="n">
         <v>25.77551421354913</v>
       </c>
     </row>
@@ -5409,7 +5838,7 @@
         <v>34.3818674415215</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -5454,42 +5883,51 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
         <v>1.290255566146579</v>
       </c>
-      <c r="W48" t="n">
+      <c r="Z48" t="n">
         <v>0.06565084570652577</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AA48" t="n">
         <v>1930.582030625408</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AB48" t="n">
         <v>288.3849681250494</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AC48" t="n">
         <v>-14.45062262983057</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AD48" t="n">
         <v>7.412596336697576</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AE48" t="n">
         <v>1.474661171462962</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AF48" t="n">
         <v>1.797457622379199</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AG48" t="n">
         <v>0.1624361407175324</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AH48" t="n">
         <v>7.430024150592757</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AI48" t="n">
         <v>2.095882327411973</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AJ48" t="n">
         <v>164453290391.2769</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AK48" t="n">
         <v>29.55562447690532</v>
       </c>
     </row>
@@ -5513,7 +5951,7 @@
         <v>30.66708173687493</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -5558,42 +5996,51 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
         <v>1.308459581420473</v>
       </c>
-      <c r="W49" t="n">
+      <c r="Z49" t="n">
         <v>0.07262275310359306</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AA49" t="n">
         <v>1950.103101884363</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="AB49" t="n">
         <v>296.3578738227278</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AC49" t="n">
         <v>-17.15349923483559</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AD49" t="n">
         <v>8.070262085707599</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AE49" t="n">
         <v>1.503711290513178</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AF49" t="n">
         <v>1.775525770116388</v>
       </c>
-      <c r="AD49" t="n">
+      <c r="AG49" t="n">
         <v>0.1775883304029124</v>
       </c>
-      <c r="AE49" t="n">
+      <c r="AH49" t="n">
         <v>7.035476342092176</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AI49" t="n">
         <v>2.212577665634814</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AJ49" t="n">
         <v>159900706027.3653</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AK49" t="n">
         <v>33.34225138087315</v>
       </c>
     </row>
@@ -5617,7 +6064,7 @@
         <v>39.94986553029801</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -5662,42 +6109,51 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
         <v>1.24802873973292</v>
       </c>
-      <c r="W50" t="n">
+      <c r="Z50" t="n">
         <v>0.02144822059617973</v>
       </c>
-      <c r="X50" t="n">
+      <c r="AA50" t="n">
         <v>1810.7190753287</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="AB50" t="n">
         <v>161.9833498922569</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AC50" t="n">
         <v>-4.149073743289094</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AD50" t="n">
         <v>2.848667594811081</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AE50" t="n">
         <v>1.009653048771779</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AF50" t="n">
         <v>1.85671648711292</v>
       </c>
-      <c r="AD50" t="n">
+      <c r="AG50" t="n">
         <v>0.08227844452040736</v>
       </c>
-      <c r="AE50" t="n">
+      <c r="AH50" t="n">
         <v>8.766660375834515</v>
       </c>
-      <c r="AF50" t="n">
+      <c r="AI50" t="n">
         <v>1.38497135436951</v>
       </c>
-      <c r="AG50" t="n">
+      <c r="AJ50" t="n">
         <v>174090785113.8431</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AK50" t="n">
         <v>11.03290579065983</v>
       </c>
     </row>
@@ -5721,7 +6177,7 @@
         <v>42.95140555101034</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5766,42 +6222,51 @@
         <v>0</v>
       </c>
       <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
         <v>1.249165970137882</v>
       </c>
-      <c r="W51" t="n">
+      <c r="Z51" t="n">
         <v>0.02472846799651854</v>
       </c>
-      <c r="X51" t="n">
+      <c r="AA51" t="n">
         <v>1820.234979948842</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="AB51" t="n">
         <v>173.1695374165343</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AC51" t="n">
         <v>-4.530553841195357</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AD51" t="n">
         <v>3.170225826724983</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AE51" t="n">
         <v>1.049702402040458</v>
       </c>
-      <c r="AC51" t="n">
+      <c r="AF51" t="n">
         <v>1.851735348547497</v>
       </c>
-      <c r="AD51" t="n">
+      <c r="AG51" t="n">
         <v>0.08707762946006013</v>
       </c>
-      <c r="AE51" t="n">
+      <c r="AH51" t="n">
         <v>8.643218907359087</v>
       </c>
-      <c r="AF51" t="n">
+      <c r="AI51" t="n">
         <v>1.422768557032738</v>
       </c>
-      <c r="AG51" t="n">
+      <c r="AJ51" t="n">
         <v>173486565971.8763</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AK51" t="n">
         <v>12.1730874022136</v>
       </c>
     </row>
@@ -5825,7 +6290,7 @@
         <v>44.84913622300588</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5870,42 +6335,51 @@
         <v>0</v>
       </c>
       <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
         <v>1.25151854467592</v>
       </c>
-      <c r="W52" t="n">
+      <c r="Z52" t="n">
         <v>0.03010228160067696</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AA52" t="n">
         <v>1830.693847874361</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AB52" t="n">
         <v>185.6320635980945</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AC52" t="n">
         <v>-5.300071771737318</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AD52" t="n">
         <v>3.751299434706205</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AE52" t="n">
         <v>1.09916336059111</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AF52" t="n">
         <v>1.845978942176448</v>
       </c>
-      <c r="AD52" t="n">
+      <c r="AG52" t="n">
         <v>0.09435497819548172</v>
       </c>
-      <c r="AE52" t="n">
+      <c r="AH52" t="n">
         <v>8.509625671960261</v>
       </c>
-      <c r="AF52" t="n">
+      <c r="AI52" t="n">
         <v>1.488499234491444</v>
       </c>
-      <c r="AG52" t="n">
+      <c r="AJ52" t="n">
         <v>172680263347.7455</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AK52" t="n">
         <v>14.00178469927663</v>
       </c>
     </row>
@@ -5929,7 +6403,7 @@
         <v>45.62267961318553</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5974,42 +6448,51 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
         <v>1.254117523614777</v>
       </c>
-      <c r="W53" t="n">
+      <c r="Z53" t="n">
         <v>0.03462760783350381</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AA53" t="n">
         <v>1844.284507401967</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AB53" t="n">
         <v>203.3305297558686</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AC53" t="n">
         <v>-6.029235941291867</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AD53" t="n">
         <v>4.174536697457667</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AE53" t="n">
         <v>1.15276305528451</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AF53" t="n">
         <v>1.840615953146148</v>
       </c>
-      <c r="AD53" t="n">
+      <c r="AG53" t="n">
         <v>0.1024234167821053</v>
       </c>
-      <c r="AE53" t="n">
+      <c r="AH53" t="n">
         <v>8.374990818610401</v>
       </c>
-      <c r="AF53" t="n">
+      <c r="AI53" t="n">
         <v>1.553493402626072</v>
       </c>
-      <c r="AG53" t="n">
+      <c r="AJ53" t="n">
         <v>172009781886.2176</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AK53" t="n">
         <v>15.78409686314308</v>
       </c>
     </row>
@@ -6033,7 +6516,7 @@
         <v>45.69195112082531</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -6078,42 +6561,51 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
         <v>1.258692604250008</v>
       </c>
-      <c r="W54" t="n">
+      <c r="Z54" t="n">
         <v>0.04141124916944318</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AA54" t="n">
         <v>1856.40814075259</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="AB54" t="n">
         <v>217.2380466333406</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AC54" t="n">
         <v>-7.360813304799988</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AD54" t="n">
         <v>4.87395899289897</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AE54" t="n">
         <v>1.211498164178342</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AF54" t="n">
         <v>1.833857335965606</v>
       </c>
-      <c r="AD54" t="n">
+      <c r="AG54" t="n">
         <v>0.1124554489979724</v>
       </c>
-      <c r="AE54" t="n">
+      <c r="AH54" t="n">
         <v>8.224166637806453</v>
       </c>
-      <c r="AF54" t="n">
+      <c r="AI54" t="n">
         <v>1.649976456909952</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AJ54" t="n">
         <v>170880051315.2777</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AK54" t="n">
         <v>18.28943713629669</v>
       </c>
     </row>
@@ -6137,7 +6629,7 @@
         <v>44.76444883044298</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -6182,42 +6674,51 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
         <v>1.26569710136123</v>
       </c>
-      <c r="W55" t="n">
+      <c r="Z55" t="n">
         <v>0.04937096631483857</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AA55" t="n">
         <v>1871.992047665032</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="AB55" t="n">
         <v>234.4755668325331</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AC55" t="n">
         <v>-9.235868909301654</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AD55" t="n">
         <v>5.658262715704853</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AE55" t="n">
         <v>1.282101578003431</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AF55" t="n">
         <v>1.825024462082266</v>
       </c>
-      <c r="AD55" t="n">
+      <c r="AG55" t="n">
         <v>0.1254203853939648</v>
       </c>
-      <c r="AE55" t="n">
+      <c r="AH55" t="n">
         <v>8.029016682109281</v>
       </c>
-      <c r="AF55" t="n">
+      <c r="AI55" t="n">
         <v>1.774526355339723</v>
       </c>
-      <c r="AG55" t="n">
+      <c r="AJ55" t="n">
         <v>169289691068.332</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AK55" t="n">
         <v>21.44775763988239</v>
       </c>
     </row>
@@ -6241,7 +6742,7 @@
         <v>43.23868219869993</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -6286,42 +6787,51 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
         <v>1.27489827742872</v>
       </c>
-      <c r="W56" t="n">
+      <c r="Z56" t="n">
         <v>0.05733570144406527</v>
       </c>
-      <c r="X56" t="n">
+      <c r="AA56" t="n">
         <v>1889.077468612221</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AB56" t="n">
         <v>248.7026667183146</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AC56" t="n">
         <v>-11.43533697453127</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AD56" t="n">
         <v>6.39628658635952</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AE56" t="n">
         <v>1.350436896012636</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AF56" t="n">
         <v>1.812685025182248</v>
       </c>
-      <c r="AD56" t="n">
+      <c r="AG56" t="n">
         <v>0.1391578511944974</v>
       </c>
-      <c r="AE56" t="n">
+      <c r="AH56" t="n">
         <v>7.78498451195669</v>
       </c>
-      <c r="AF56" t="n">
+      <c r="AI56" t="n">
         <v>1.905496325524422</v>
       </c>
-      <c r="AG56" t="n">
+      <c r="AJ56" t="n">
         <v>167020226715.1582</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AK56" t="n">
         <v>24.7375242233671</v>
       </c>
     </row>
@@ -6345,7 +6855,7 @@
         <v>40.2765885835334</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -6390,42 +6900,51 @@
         <v>0</v>
       </c>
       <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
         <v>1.287278807059911</v>
       </c>
-      <c r="W57" t="n">
+      <c r="Z57" t="n">
         <v>0.06517902908776768</v>
       </c>
-      <c r="X57" t="n">
+      <c r="AA57" t="n">
         <v>1904.02800501233</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AB57" t="n">
         <v>259.4091171622219</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AC57" t="n">
         <v>-14.13681288570711</v>
       </c>
-      <c r="AA57" t="n">
+      <c r="AD57" t="n">
         <v>7.17580173298723</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AE57" t="n">
         <v>1.406982191800588</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AF57" t="n">
         <v>1.797951392773983</v>
       </c>
-      <c r="AD57" t="n">
+      <c r="AG57" t="n">
         <v>0.1535190573973805</v>
       </c>
-      <c r="AE57" t="n">
+      <c r="AH57" t="n">
         <v>7.515743926732776</v>
       </c>
-      <c r="AF57" t="n">
+      <c r="AI57" t="n">
         <v>2.051077787839777</v>
       </c>
-      <c r="AG57" t="n">
+      <c r="AJ57" t="n">
         <v>164006657558.5703</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AK57" t="n">
         <v>28.22619166467861</v>
       </c>
     </row>
@@ -6449,7 +6968,7 @@
         <v>36.8920421235157</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -6494,42 +7013,51 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
         <v>1.304395135786115</v>
       </c>
-      <c r="W58" t="n">
+      <c r="Z58" t="n">
         <v>0.07223320233851814</v>
       </c>
-      <c r="X58" t="n">
+      <c r="AA58" t="n">
         <v>1925.298607993181</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="AB58" t="n">
         <v>273.6299359599251</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AC58" t="n">
         <v>-16.75904473030067</v>
       </c>
-      <c r="AA58" t="n">
+      <c r="AD58" t="n">
         <v>7.743005896092456</v>
       </c>
-      <c r="AB58" t="n">
+      <c r="AE58" t="n">
         <v>1.44457288679063</v>
       </c>
-      <c r="AC58" t="n">
+      <c r="AF58" t="n">
         <v>1.778135662987949</v>
       </c>
-      <c r="AD58" t="n">
+      <c r="AG58" t="n">
         <v>0.1693908947783828</v>
       </c>
-      <c r="AE58" t="n">
+      <c r="AH58" t="n">
         <v>7.137365157728554</v>
       </c>
-      <c r="AF58" t="n">
+      <c r="AI58" t="n">
         <v>2.171982637510644</v>
       </c>
-      <c r="AG58" t="n">
+      <c r="AJ58" t="n">
         <v>159908150872.5283</v>
       </c>
-      <c r="AH58" t="n">
+      <c r="AK58" t="n">
         <v>32.0234987742228</v>
       </c>
     </row>
@@ -6553,7 +7081,7 @@
         <v>51.48458983230962</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -6598,42 +7126,51 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
         <v>1.248173463955863</v>
       </c>
-      <c r="W59" t="n">
+      <c r="Z59" t="n">
         <v>0.02369207465051052</v>
       </c>
-      <c r="X59" t="n">
+      <c r="AA59" t="n">
         <v>1816.036230656019</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="AB59" t="n">
         <v>157.1372793135052</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AC59" t="n">
         <v>-3.984197427803568</v>
       </c>
-      <c r="AA59" t="n">
+      <c r="AD59" t="n">
         <v>2.896097424731099</v>
       </c>
-      <c r="AB59" t="n">
+      <c r="AE59" t="n">
         <v>0.9917266351899737</v>
       </c>
-      <c r="AC59" t="n">
+      <c r="AF59" t="n">
         <v>1.849754570551799</v>
       </c>
-      <c r="AD59" t="n">
+      <c r="AG59" t="n">
         <v>0.07987185764445565</v>
       </c>
-      <c r="AE59" t="n">
+      <c r="AH59" t="n">
         <v>8.565045672130063</v>
       </c>
-      <c r="AF59" t="n">
+      <c r="AI59" t="n">
         <v>1.3265204408188</v>
       </c>
-      <c r="AG59" t="n">
+      <c r="AJ59" t="n">
         <v>173014685858.3345</v>
       </c>
-      <c r="AH59" t="n">
+      <c r="AK59" t="n">
         <v>11.46453639229935</v>
       </c>
     </row>
@@ -6657,7 +7194,7 @@
         <v>52.68766451772395</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -6702,42 +7239,51 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
         <v>1.250243385753274</v>
       </c>
-      <c r="W60" t="n">
+      <c r="Z60" t="n">
         <v>0.02852168034020697</v>
       </c>
-      <c r="X60" t="n">
+      <c r="AA60" t="n">
         <v>1826.072311795341</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="AB60" t="n">
         <v>173.0558311905034</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AC60" t="n">
         <v>-4.593643995492075</v>
       </c>
-      <c r="AA60" t="n">
+      <c r="AD60" t="n">
         <v>3.379205057962119</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AE60" t="n">
         <v>1.033836317188014</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AF60" t="n">
         <v>1.845455917498926</v>
       </c>
-      <c r="AD60" t="n">
+      <c r="AG60" t="n">
         <v>0.08712230696318295</v>
       </c>
-      <c r="AE60" t="n">
+      <c r="AH60" t="n">
         <v>8.454828311929239</v>
       </c>
-      <c r="AF60" t="n">
+      <c r="AI60" t="n">
         <v>1.383681839585874</v>
       </c>
-      <c r="AG60" t="n">
+      <c r="AJ60" t="n">
         <v>172439430769.8372</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AK60" t="n">
         <v>13.1914076117113</v>
       </c>
     </row>
@@ -6761,7 +7307,7 @@
         <v>53.38379219495547</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -6806,42 +7352,51 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
         <v>1.253413501155693</v>
       </c>
-      <c r="W61" t="n">
+      <c r="Z61" t="n">
         <v>0.03453818071119479</v>
       </c>
-      <c r="X61" t="n">
+      <c r="AA61" t="n">
         <v>1835.882344717716</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="AB61" t="n">
         <v>187.6053866832814</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AC61" t="n">
         <v>-5.520483579120433</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AD61" t="n">
         <v>3.983229488204207</v>
       </c>
-      <c r="AB61" t="n">
+      <c r="AE61" t="n">
         <v>1.079544481620729</v>
       </c>
-      <c r="AC61" t="n">
+      <c r="AF61" t="n">
         <v>1.840604297931358</v>
       </c>
-      <c r="AD61" t="n">
+      <c r="AG61" t="n">
         <v>0.09570407373129677</v>
       </c>
-      <c r="AE61" t="n">
+      <c r="AH61" t="n">
         <v>8.335970205429453</v>
       </c>
-      <c r="AF61" t="n">
+      <c r="AI61" t="n">
         <v>1.459283012400474</v>
       </c>
-      <c r="AG61" t="n">
+      <c r="AJ61" t="n">
         <v>171656731831.7708</v>
       </c>
-      <c r="AH61" t="n">
+      <c r="AK61" t="n">
         <v>15.34135515632929</v>
       </c>
     </row>
@@ -6865,7 +7420,7 @@
         <v>52.80270876740787</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6910,42 +7465,51 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
         <v>1.257574595587043</v>
       </c>
-      <c r="W62" t="n">
+      <c r="Z62" t="n">
         <v>0.04091035198653173</v>
       </c>
-      <c r="X62" t="n">
+      <c r="AA62" t="n">
         <v>1846.363188315957</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="AB62" t="n">
         <v>198.2805700122634</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AC62" t="n">
         <v>-6.794951186190821</v>
       </c>
-      <c r="AA62" t="n">
+      <c r="AD62" t="n">
         <v>4.627926587300744</v>
       </c>
-      <c r="AB62" t="n">
+      <c r="AE62" t="n">
         <v>1.138400849482298</v>
       </c>
-      <c r="AC62" t="n">
+      <c r="AF62" t="n">
         <v>1.833254052167051</v>
       </c>
-      <c r="AD62" t="n">
+      <c r="AG62" t="n">
         <v>0.1056118552645172</v>
       </c>
-      <c r="AE62" t="n">
+      <c r="AH62" t="n">
         <v>8.198876257766072</v>
       </c>
-      <c r="AF62" t="n">
+      <c r="AI62" t="n">
         <v>1.562045548930802</v>
       </c>
-      <c r="AG62" t="n">
+      <c r="AJ62" t="n">
         <v>170477732170.6726</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AK62" t="n">
         <v>17.59698311040229</v>
       </c>
     </row>
@@ -6969,7 +7533,7 @@
         <v>51.15765002379293</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -7014,42 +7578,51 @@
         <v>0</v>
       </c>
       <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
         <v>1.263371224435277</v>
       </c>
-      <c r="W63" t="n">
+      <c r="Z63" t="n">
         <v>0.04756043643405155</v>
       </c>
-      <c r="X63" t="n">
+      <c r="AA63" t="n">
         <v>1862.216217590563</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AB63" t="n">
         <v>221.4816741451212</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AC63" t="n">
         <v>-8.287437398950479</v>
       </c>
-      <c r="AA63" t="n">
+      <c r="AD63" t="n">
         <v>5.235019717292535</v>
       </c>
-      <c r="AB63" t="n">
+      <c r="AE63" t="n">
         <v>1.208988374116841</v>
       </c>
-      <c r="AC63" t="n">
+      <c r="AF63" t="n">
         <v>1.827258512280519</v>
       </c>
-      <c r="AD63" t="n">
+      <c r="AG63" t="n">
         <v>0.1181242278458089</v>
       </c>
-      <c r="AE63" t="n">
+      <c r="AH63" t="n">
         <v>8.04381616656228</v>
       </c>
-      <c r="AF63" t="n">
+      <c r="AI63" t="n">
         <v>1.673916335169507</v>
       </c>
-      <c r="AG63" t="n">
+      <c r="AJ63" t="n">
         <v>169435607752.4117</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AK63" t="n">
         <v>20.42862480213443</v>
       </c>
     </row>
@@ -7073,7 +7646,7 @@
         <v>50.17834868346729</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -7118,42 +7691,51 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
         <v>1.271043651477552</v>
       </c>
-      <c r="W64" t="n">
+      <c r="Z64" t="n">
         <v>0.05505097210143857</v>
       </c>
-      <c r="X64" t="n">
+      <c r="AA64" t="n">
         <v>1871.92928290859</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="AB64" t="n">
         <v>227.45168684098</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AC64" t="n">
         <v>-10.29487627230168</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AD64" t="n">
         <v>5.901906032526989</v>
       </c>
-      <c r="AB64" t="n">
+      <c r="AE64" t="n">
         <v>1.260577459998039</v>
       </c>
-      <c r="AC64" t="n">
+      <c r="AF64" t="n">
         <v>1.81629960773129</v>
       </c>
-      <c r="AD64" t="n">
+      <c r="AG64" t="n">
         <v>0.1294996769902189</v>
       </c>
-      <c r="AE64" t="n">
+      <c r="AH64" t="n">
         <v>7.852093718251847</v>
       </c>
-      <c r="AF64" t="n">
+      <c r="AI64" t="n">
         <v>1.798589089127589</v>
       </c>
-      <c r="AG64" t="n">
+      <c r="AJ64" t="n">
         <v>167323995346.3752</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AK64" t="n">
         <v>23.22700902701967</v>
       </c>
     </row>
@@ -7177,7 +7759,7 @@
         <v>45.9459051446501</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -7222,42 +7804,51 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
         <v>1.285229020809947</v>
       </c>
-      <c r="W65" t="n">
+      <c r="Z65" t="n">
         <v>0.06464270907113251</v>
       </c>
-      <c r="X65" t="n">
+      <c r="AA65" t="n">
         <v>1890.844141882113</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="AB65" t="n">
         <v>244.4378380349647</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AC65" t="n">
         <v>-13.50954144397866</v>
       </c>
-      <c r="AA65" t="n">
+      <c r="AD65" t="n">
         <v>6.798781257171578</v>
       </c>
-      <c r="AB65" t="n">
+      <c r="AE65" t="n">
         <v>1.342521812350635</v>
       </c>
-      <c r="AC65" t="n">
+      <c r="AF65" t="n">
         <v>1.799656249306699</v>
       </c>
-      <c r="AD65" t="n">
+      <c r="AG65" t="n">
         <v>0.1478301917457117</v>
       </c>
-      <c r="AE65" t="n">
+      <c r="AH65" t="n">
         <v>7.546682456192698</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AI65" t="n">
         <v>1.987960127321952</v>
       </c>
-      <c r="AG65" t="n">
+      <c r="AJ65" t="n">
         <v>163974264207.5181</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AK65" t="n">
         <v>27.46608312871334</v>
       </c>
     </row>
@@ -7281,7 +7872,7 @@
         <v>60.70655502024002</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -7326,42 +7917,51 @@
         <v>0</v>
       </c>
       <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
         <v>1.24909113091315</v>
       </c>
-      <c r="W66" t="n">
+      <c r="Z66" t="n">
         <v>0.02733125080922371</v>
       </c>
-      <c r="X66" t="n">
+      <c r="AA66" t="n">
         <v>1820.729594702146</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="AB66" t="n">
         <v>153.8813525483689</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AC66" t="n">
         <v>-3.993102663126909</v>
       </c>
-      <c r="AA66" t="n">
+      <c r="AD66" t="n">
         <v>3.088276650922895</v>
       </c>
-      <c r="AB66" t="n">
+      <c r="AE66" t="n">
         <v>0.9437881226723177</v>
       </c>
-      <c r="AC66" t="n">
+      <c r="AF66" t="n">
         <v>1.843406252713061</v>
       </c>
-      <c r="AD66" t="n">
+      <c r="AG66" t="n">
         <v>0.07938854921044308</v>
       </c>
-      <c r="AE66" t="n">
+      <c r="AH66" t="n">
         <v>8.388825349496349</v>
       </c>
-      <c r="AF66" t="n">
+      <c r="AI66" t="n">
         <v>1.27753258819032</v>
       </c>
-      <c r="AG66" t="n">
+      <c r="AJ66" t="n">
         <v>171963445569.567</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AK66" t="n">
         <v>12.32776950307884</v>
       </c>
     </row>
@@ -7385,7 +7985,7 @@
         <v>60.82788597786767</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -7430,42 +8030,51 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
         <v>1.251667612378637</v>
       </c>
-      <c r="W67" t="n">
+      <c r="Z67" t="n">
         <v>0.0327532832507027</v>
       </c>
-      <c r="X67" t="n">
+      <c r="AA67" t="n">
         <v>1826.65595524936</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="AB67" t="n">
         <v>160.7058077231332</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AC67" t="n">
         <v>-4.820330307640553</v>
       </c>
-      <c r="AA67" t="n">
+      <c r="AD67" t="n">
         <v>3.649848376041125</v>
       </c>
-      <c r="AB67" t="n">
+      <c r="AE67" t="n">
         <v>0.9818467539039593</v>
       </c>
-      <c r="AC67" t="n">
+      <c r="AF67" t="n">
         <v>1.838577007769266</v>
       </c>
-      <c r="AD67" t="n">
+      <c r="AG67" t="n">
         <v>0.08665883119657335</v>
       </c>
-      <c r="AE67" t="n">
+      <c r="AH67" t="n">
         <v>8.299310600288598</v>
       </c>
-      <c r="AF67" t="n">
+      <c r="AI67" t="n">
         <v>1.351417038595356</v>
       </c>
-      <c r="AG67" t="n">
+      <c r="AJ67" t="n">
         <v>171169569079.2677</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AK67" t="n">
         <v>14.08022497237117</v>
       </c>
     </row>
@@ -7489,7 +8098,7 @@
         <v>59.99027473019454</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -7534,42 +8143,51 @@
         <v>0</v>
       </c>
       <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
         <v>1.255664054192928</v>
       </c>
-      <c r="W68" t="n">
+      <c r="Z68" t="n">
         <v>0.03909623398617193</v>
       </c>
-      <c r="X68" t="n">
+      <c r="AA68" t="n">
         <v>1837.05733321125</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="AB68" t="n">
         <v>179.6138948399519</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AC68" t="n">
         <v>-5.94711537196425</v>
       </c>
-      <c r="AA68" t="n">
+      <c r="AD68" t="n">
         <v>4.230629612240706</v>
       </c>
-      <c r="AB68" t="n">
+      <c r="AE68" t="n">
         <v>1.038782933144197</v>
       </c>
-      <c r="AC68" t="n">
+      <c r="AF68" t="n">
         <v>1.833963613549217</v>
       </c>
-      <c r="AD68" t="n">
+      <c r="AG68" t="n">
         <v>0.09715665994352383</v>
       </c>
-      <c r="AE68" t="n">
+      <c r="AH68" t="n">
         <v>8.187813338645499</v>
       </c>
-      <c r="AF68" t="n">
+      <c r="AI68" t="n">
         <v>1.448496461994609</v>
       </c>
-      <c r="AG68" t="n">
+      <c r="AJ68" t="n">
         <v>170366802414.7359</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AK68" t="n">
         <v>16.51411693447567</v>
       </c>
     </row>
@@ -7593,7 +8211,7 @@
         <v>58.18588011364523</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -7638,42 +8256,51 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
         <v>1.260886491959101</v>
       </c>
-      <c r="W69" t="n">
+      <c r="Z69" t="n">
         <v>0.04559361525855488</v>
       </c>
-      <c r="X69" t="n">
+      <c r="AA69" t="n">
         <v>1851.530465125207</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="AB69" t="n">
         <v>201.847233702702</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AC69" t="n">
         <v>-7.326506860293634</v>
       </c>
-      <c r="AA69" t="n">
+      <c r="AD69" t="n">
         <v>4.787790854086055</v>
       </c>
-      <c r="AB69" t="n">
+      <c r="AE69" t="n">
         <v>1.112307228019078</v>
       </c>
-      <c r="AC69" t="n">
+      <c r="AF69" t="n">
         <v>1.827730262609577</v>
       </c>
-      <c r="AD69" t="n">
+      <c r="AG69" t="n">
         <v>0.1095515260574534</v>
       </c>
-      <c r="AE69" t="n">
+      <c r="AH69" t="n">
         <v>8.044211281078017</v>
       </c>
-      <c r="AF69" t="n">
+      <c r="AI69" t="n">
         <v>1.562749792477115</v>
       </c>
-      <c r="AG69" t="n">
+      <c r="AJ69" t="n">
         <v>169335220223.4395</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AK69" t="n">
         <v>19.18451787470054</v>
       </c>
     </row>
@@ -7697,7 +8324,7 @@
         <v>55.46067873327885</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -7742,42 +8369,51 @@
         <v>0</v>
       </c>
       <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
         <v>1.26831483559426</v>
       </c>
-      <c r="W70" t="n">
+      <c r="Z70" t="n">
         <v>0.05330745365377357</v>
       </c>
-      <c r="X70" t="n">
+      <c r="AA70" t="n">
         <v>1860.887507812472</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="AB70" t="n">
         <v>208.9982239003844</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AC70" t="n">
         <v>-9.437786276461582</v>
       </c>
-      <c r="AA70" t="n">
+      <c r="AD70" t="n">
         <v>5.515785141905623</v>
       </c>
-      <c r="AB70" t="n">
+      <c r="AE70" t="n">
         <v>1.18436319917121</v>
       </c>
-      <c r="AC70" t="n">
+      <c r="AF70" t="n">
         <v>1.817370000276919</v>
       </c>
-      <c r="AD70" t="n">
+      <c r="AG70" t="n">
         <v>0.1220723338690623</v>
       </c>
-      <c r="AE70" t="n">
+      <c r="AH70" t="n">
         <v>7.879741248836599</v>
       </c>
-      <c r="AF70" t="n">
+      <c r="AI70" t="n">
         <v>1.714186712109438</v>
       </c>
-      <c r="AG70" t="n">
+      <c r="AJ70" t="n">
         <v>167369880358.4543</v>
       </c>
-      <c r="AH70" t="n">
+      <c r="AK70" t="n">
         <v>22.04057316088085</v>
       </c>
     </row>

--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW127_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW127_wt_pct_processed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
